--- a/Assets/Roles ID.xlsx
+++ b/Assets/Roles ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\TONX\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuxia\Downloads\新建文件夹\TownOfNext\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963AFC0-69A0-45E2-A7F9-309D560A9D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB22C37-4695-41F9-BBCE-B80EF118D171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{814C7422-745C-474F-A837-AE31BC6ADF7D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{814C7422-745C-474F-A837-AE31BC6ADF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
   <si>
     <t>Bodyguard</t>
   </si>
@@ -395,6 +393,10 @@
   </si>
   <si>
     <t>Hater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sidekick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,74 +453,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,10 +469,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="282C34"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D8DEE9"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -829,18 +763,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2AB7C1-B92C-442E-A860-0526D649E1E1}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="17.2109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -866,7 +800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +826,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -918,7 +852,7 @@
         <v>80100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -944,7 +878,7 @@
         <v>80200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -970,7 +904,7 @@
         <v>80300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -996,7 +930,7 @@
         <v>80400</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +956,7 @@
         <v>80500</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1048,7 +982,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1008,7 @@
         <v>80700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1034,7 @@
         <v>80800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1060,7 @@
         <v>80900</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1086,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +1112,7 @@
         <v>81100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1138,7 @@
         <v>81200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1164,7 @@
         <v>81300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1190,7 @@
         <v>81400</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1269,6 +1203,12 @@
       <c r="E17">
         <v>2800</v>
       </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17">
+        <v>51800</v>
+      </c>
       <c r="J17" t="s">
         <v>94</v>
       </c>
@@ -1276,7 +1216,7 @@
         <v>81500</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1236,7 @@
         <v>81600</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1316,7 +1256,7 @@
         <v>81700</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1336,7 +1276,7 @@
         <v>81800</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1296,7 @@
         <v>81900</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1316,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1336,7 @@
         <v>82100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1410,7 +1350,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1424,7 +1364,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1378,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1392,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1466,7 +1406,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1420,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1494,7 +1434,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1508,7 +1448,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>62</v>
       </c>
@@ -1516,7 +1456,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>63</v>
       </c>
@@ -1524,7 +1464,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>64</v>
       </c>
@@ -1532,7 +1472,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>65</v>
       </c>
@@ -1540,7 +1480,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>66</v>
       </c>
@@ -1548,7 +1488,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>67</v>
       </c>
@@ -1556,7 +1496,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>68</v>
       </c>
@@ -1564,7 +1504,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>69</v>
       </c>
@@ -1572,7 +1512,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>70</v>
       </c>
@@ -1580,7 +1520,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>71</v>
       </c>
@@ -1588,7 +1528,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>105</v>
       </c>
@@ -1596,7 +1536,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>106</v>
       </c>
@@ -1604,7 +1544,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>107</v>
       </c>
@@ -1612,7 +1552,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>108</v>
       </c>
@@ -1620,7 +1560,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>109</v>
       </c>

--- a/Assets/Roles ID.xlsx
+++ b/Assets/Roles ID.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuxia\Downloads\新建文件夹\TownOfNext\Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB22C37-4695-41F9-BBCE-B80EF118D171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{814C7422-745C-474F-A837-AE31BC6ADF7D}"/>
+    <workbookView windowWidth="21600" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,195 +27,305 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Bodyguard</t>
   </si>
   <si>
+    <t>AntiAdminer</t>
+  </si>
+  <si>
+    <t>Arsonist</t>
+  </si>
+  <si>
+    <t>LastImpostor</t>
+  </si>
+  <si>
+    <t>KB_Normal</t>
+  </si>
+  <si>
     <t>Counterfeiter</t>
   </si>
   <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Executioner</t>
+  </si>
+  <si>
+    <t>Lover</t>
+  </si>
+  <si>
     <t>CyberStar</t>
   </si>
   <si>
+    <t>BallLightning</t>
+  </si>
+  <si>
+    <t>Jackal</t>
+  </si>
+  <si>
+    <t>Madmate</t>
+  </si>
+  <si>
     <t>Detective</t>
   </si>
   <si>
+    <t>Bard</t>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>Workhorse</t>
+  </si>
+  <si>
     <t>Dictator</t>
   </si>
   <si>
+    <t>Bomber</t>
+  </si>
+  <si>
+    <t>Opportunist</t>
+  </si>
+  <si>
+    <t>Watcher</t>
+  </si>
+  <si>
     <t>Divinator</t>
   </si>
   <si>
+    <t>BoobyTrap</t>
+  </si>
+  <si>
+    <t>Terrorist</t>
+  </si>
+  <si>
+    <t>Flashman</t>
+  </si>
+  <si>
     <t>Doctor</t>
   </si>
   <si>
+    <t>BountyHunter</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>Ntr</t>
+  </si>
+  <si>
     <t>DoveOfPeace</t>
   </si>
   <si>
+    <t>Capitalism</t>
+  </si>
+  <si>
+    <t>Totocalcio</t>
+  </si>
+  <si>
+    <t>Youtuber</t>
+  </si>
+  <si>
     <t>Glitch</t>
   </si>
   <si>
+    <t>Cleaner</t>
+  </si>
+  <si>
+    <t>Succubus</t>
+  </si>
+  <si>
+    <t>Egoist</t>
+  </si>
+  <si>
     <t>Grenadier</t>
   </si>
   <si>
+    <t>Concealer</t>
+  </si>
+  <si>
+    <t>Pelican</t>
+  </si>
+  <si>
+    <t>Seer</t>
+  </si>
+  <si>
     <t>Judge</t>
   </si>
   <si>
+    <t>Crewpostor</t>
+  </si>
+  <si>
+    <t>Gamer</t>
+  </si>
+  <si>
+    <t>Braker</t>
+  </si>
+  <si>
     <t>Luckey</t>
   </si>
   <si>
+    <t>CursedWolf</t>
+  </si>
+  <si>
+    <t>PlagueDoctor</t>
+  </si>
+  <si>
+    <t>Oblivious</t>
+  </si>
+  <si>
     <t>Mayor</t>
   </si>
   <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>SchrodingerCat</t>
+  </si>
+  <si>
+    <t>Bewilder</t>
+  </si>
+  <si>
     <t>Medicaler</t>
   </si>
   <si>
+    <t>Escapee</t>
+  </si>
+  <si>
+    <t>Workaholic</t>
+  </si>
+  <si>
+    <t>Fool</t>
+  </si>
+  <si>
     <t>Mediumshiper</t>
   </si>
   <si>
+    <t>EvilGuesser</t>
+  </si>
+  <si>
+    <t>Hater</t>
+  </si>
+  <si>
+    <t>Avanger</t>
+  </si>
+  <si>
     <t>Mortician</t>
   </si>
   <si>
+    <t>EvilTracker</t>
+  </si>
+  <si>
+    <t>DualPersonality</t>
+  </si>
+  <si>
     <t>Needy</t>
   </si>
   <si>
+    <t>FireWorks</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
     <t>NiceGuesser</t>
   </si>
   <si>
+    <t>Gangster</t>
+  </si>
+  <si>
+    <t>Bait</t>
+  </si>
+  <si>
     <t>Observer</t>
   </si>
   <si>
+    <t>Greedier</t>
+  </si>
+  <si>
+    <t>Trapper</t>
+  </si>
+  <si>
     <t>Paranoia</t>
   </si>
   <si>
+    <t>Hacker</t>
+  </si>
+  <si>
+    <t>TicketsStealer</t>
+  </si>
+  <si>
     <t>Psychic</t>
   </si>
   <si>
+    <t>Hangman</t>
+  </si>
+  <si>
+    <t>Mimic</t>
+  </si>
+  <si>
     <t>SabotageMaster</t>
   </si>
   <si>
+    <t>ImperiusCurse</t>
+  </si>
+  <si>
+    <t>Lighter</t>
+  </si>
+  <si>
     <t>Sheriff</t>
   </si>
   <si>
+    <t>Mafia</t>
+  </si>
+  <si>
     <t>Snitch</t>
   </si>
   <si>
+    <t>Mare</t>
+  </si>
+  <si>
     <t>SpeedBooster</t>
   </si>
   <si>
+    <t>Miner</t>
+  </si>
+  <si>
     <t>SuperStar</t>
   </si>
   <si>
+    <t>Minimalism</t>
+  </si>
+  <si>
     <t>SwordsMan</t>
   </si>
   <si>
+    <t>OverKiller</t>
+  </si>
+  <si>
     <t>TimeManager</t>
   </si>
   <si>
+    <t>Puppeteer</t>
+  </si>
+  <si>
     <t>Transporter</t>
   </si>
   <si>
+    <t>QuickShooter</t>
+  </si>
+  <si>
     <t>Veteran</t>
   </si>
   <si>
-    <t>Role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AntiAdminer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assassin</t>
-  </si>
-  <si>
-    <t>BallLightning</t>
-  </si>
-  <si>
-    <t>Bard</t>
-  </si>
-  <si>
-    <t>Bomber</t>
-  </si>
-  <si>
-    <t>BoobyTrap</t>
-  </si>
-  <si>
-    <t>BountyHunter</t>
-  </si>
-  <si>
-    <t>Capitalism</t>
-  </si>
-  <si>
-    <t>Cleaner</t>
-  </si>
-  <si>
-    <t>Concealer</t>
-  </si>
-  <si>
-    <t>Crewpostor</t>
-  </si>
-  <si>
-    <t>CursedWolf</t>
-  </si>
-  <si>
-    <t>Eraser</t>
-  </si>
-  <si>
-    <t>Escapee</t>
-  </si>
-  <si>
-    <t>EvilGuesser</t>
-  </si>
-  <si>
-    <t>EvilTracker</t>
-  </si>
-  <si>
-    <t>FireWorks</t>
-  </si>
-  <si>
-    <t>Gangster</t>
-  </si>
-  <si>
-    <t>Greedier</t>
-  </si>
-  <si>
-    <t>Hacker</t>
-  </si>
-  <si>
-    <t>Hangman</t>
-  </si>
-  <si>
-    <t>ImperiusCurse</t>
-  </si>
-  <si>
-    <t>Mafia</t>
-  </si>
-  <si>
-    <t>Mare</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Minimalism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OverKiller</t>
-  </si>
-  <si>
-    <t>Puppeteer</t>
-  </si>
-  <si>
-    <t>QuickShooter</t>
-  </si>
-  <si>
     <t>Sans</t>
   </si>
   <si>
@@ -251,185 +354,391 @@
   </si>
   <si>
     <t>Witch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Zombie</t>
   </si>
   <si>
-    <t>Arsonist</t>
-  </si>
-  <si>
-    <t>Executioner</t>
-  </si>
-  <si>
-    <t>Jackal</t>
-  </si>
-  <si>
-    <t>Jester</t>
-  </si>
-  <si>
-    <t>Opportunist</t>
-  </si>
-  <si>
-    <t>Terrorist</t>
-  </si>
-  <si>
-    <t>God</t>
-  </si>
-  <si>
-    <t>Watcher</t>
-  </si>
-  <si>
-    <t>Workhorse</t>
-  </si>
-  <si>
-    <t>LastImpostor</t>
-  </si>
-  <si>
-    <t>Lover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madmate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flashman</t>
-  </si>
-  <si>
-    <t>Ntr</t>
-  </si>
-  <si>
-    <t>Youtuber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egoist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seer</t>
-  </si>
-  <si>
-    <t>Braker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oblivious</t>
-  </si>
-  <si>
-    <t>Bewilder</t>
-  </si>
-  <si>
-    <t>Fool</t>
-  </si>
-  <si>
-    <t>Avanger</t>
-  </si>
-  <si>
-    <t>DualPersonality</t>
-  </si>
-  <si>
-    <t>Reach</t>
-  </si>
-  <si>
-    <t>Bait</t>
-  </si>
-  <si>
-    <t>Trapper</t>
-  </si>
-  <si>
-    <t>TicketsStealer</t>
-  </si>
-  <si>
-    <t>Mimic</t>
-  </si>
-  <si>
-    <t>Lighter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Totocalcio</t>
-  </si>
-  <si>
-    <t>Succubus</t>
-  </si>
-  <si>
-    <t>Pelican</t>
-  </si>
-  <si>
-    <t>Gamer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Messenger</t>
   </si>
   <si>
     <t>Insider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NekoKabocha</t>
   </si>
   <si>
     <t>Penguin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Stealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlagueDoctor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SchrodingerCat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workaholic</t>
-  </si>
-  <si>
-    <t>Hater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sidekick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -437,9 +746,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -448,17 +999,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -507,7 +1102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -540,26 +1135,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -592,23 +1170,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,826 +1311,827 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2AB7C1-B92C-442E-A860-0526D649E1E1}">
-  <dimension ref="A1:K47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="17.2109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.2477876106195" customWidth="1"/>
+    <col min="4" max="4" width="14.8761061946903" customWidth="1"/>
+    <col min="7" max="7" width="12.5044247787611" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>21900</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>2900</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>50500</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>80000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>21700</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1600</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>50700</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>80100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>20400</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>4400</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>50900</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>80200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>21300</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>4900</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>50000</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>80300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>21200</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3100</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>50100</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>80400</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>22200</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>4200</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>50200</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>80500</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>21100</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1100</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>50300</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K8">
         <v>80600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>22800</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>4300</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>51000</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>80700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>23000</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>3300</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>51100</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>80800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>22000</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>4500</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>51200</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>80900</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>22300</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>4800</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>51300</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>81000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>20100</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>3500</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="H13">
         <v>51400</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>81100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>20500</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>4600</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>51500</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>81200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>22100</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>2000</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="H15">
         <v>51600</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="K15">
         <v>81300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>22500</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>51700</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="K16">
         <v>81400</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>22400</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>2800</v>
       </c>
-      <c r="G17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17">
-        <v>51800</v>
-      </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="K17">
         <v>81500</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>20200</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>2300</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K18">
         <v>81600</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>20000</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>3200</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K19">
         <v>81700</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>22600</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>3400</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="K20">
         <v>81800</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>20800</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>1700</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K21">
         <v>81900</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>20900</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E22">
         <v>3800</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K22">
         <v>82000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>20600</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>3600</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>82100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>20700</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>2200</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>21000</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E25">
         <v>2600</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>22900</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <v>1900</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>20300</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E27">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>21400</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E28">
         <v>4700</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>21600</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E29">
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B30">
         <v>21500</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E30">
         <v>3700</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B31">
         <v>21800</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:5">
       <c r="D32" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E32">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E33">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5">
       <c r="D34" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E34">
         <v>1300</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5">
       <c r="D35" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E35">
         <v>2400</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E36">
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5">
       <c r="D37" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E37">
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:5">
       <c r="D38" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="E38">
         <v>1400</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E39">
         <v>1500</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E40">
         <v>2100</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5">
       <c r="D41" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E41">
         <v>4100</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E43">
         <v>5000</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E44">
         <v>5100</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E45">
         <v>5200</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:5">
       <c r="D46" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E46">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:5">
       <c r="D47" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E47">
         <v>5400</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>